--- a/Pegar Dados RH/Arquivo Excel/vagasExcel.xlsx
+++ b/Pegar Dados RH/Arquivo Excel/vagasExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\Curriculos-IA-Revolucionando-a-Busca-por-Emprego\Pegar Dados RH\Arquivo Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDFBFD-DDD9-49DF-A31B-6FED1188BC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E6080-D8F2-4512-9E7C-BF854973FB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9909,8 +9909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H678"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
